--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -1290,10 +1290,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
+  </si>
+  <si>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>
@@ -2011,7 +2011,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.77734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4787" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="562">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}obs-7:If code is the same as a component code then the value element associated with the code SHALL NOT be present {value.empty() or code!=component.code}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}obs-7:If code is the same as a component code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where( (coding.code = %resource.code.coding.code) and (coding.system = %resource.code.coding.system)).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -501,7 +501,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -788,41 +788,10 @@
 </t>
   </si>
   <si>
-    <t>Observation.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Observation.code.coding.system</t>
@@ -1302,18 +1271,6 @@
     <t>Observation.bodySite.coding.extension</t>
   </si>
   <si>
-    <t>Observation.bodySite.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.value[x]</t>
-  </si>
-  <si>
     <t>Observation.bodySite.coding.system</t>
   </si>
   <si>
@@ -1378,18 +1335,6 @@
   </si>
   <si>
     <t>Observation.method.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Observation.method.coding.system</t>
@@ -1764,18 +1709,6 @@
   </si>
   <si>
     <t>Observation.component.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Observation.component.code.coding.system</t>
@@ -1979,7 +1912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO129"/>
+  <dimension ref="A1:AO113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1988,7 +1921,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.7734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.2890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5462,10 +5395,10 @@
         <v>247</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5551,7 +5484,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5559,7 +5492,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>56</v>
@@ -5571,25 +5504,29 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>45</v>
@@ -5631,7 +5568,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5652,10 +5589,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5666,18 +5603,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5686,19 +5623,19 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5736,25 +5673,25 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>130</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5769,10 +5706,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5783,7 +5720,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5803,21 +5740,21 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5865,10 +5802,10 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>56</v>
@@ -5886,10 +5823,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5900,7 +5837,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5908,7 +5845,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>56</v>
@@ -5920,19 +5857,21 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5980,7 +5919,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -6001,10 +5940,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -6015,7 +5954,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6023,7 +5962,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>56</v>
@@ -6038,26 +5977,26 @@
         <v>57</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>45</v>
@@ -6099,7 +6038,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6120,10 +6059,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -6134,7 +6073,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6145,7 +6084,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -6160,15 +6099,17 @@
         <v>120</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -6216,7 +6157,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6237,10 +6178,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -6251,7 +6192,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6259,7 +6200,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>56</v>
@@ -6274,17 +6215,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6333,7 +6276,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6348,19 +6291,19 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6368,15 +6311,15 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>56</v>
@@ -6388,20 +6331,22 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6450,7 +6395,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6465,19 +6410,19 @@
         <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6485,11 +6430,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6508,19 +6453,19 @@
         <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6569,7 +6514,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6584,19 +6529,19 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6604,7 +6549,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6627,20 +6572,18 @@
         <v>57</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6688,7 +6631,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6709,13 +6652,13 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6723,7 +6666,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6734,7 +6677,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6746,19 +6689,17 @@
         <v>57</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6807,13 +6748,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6822,19 +6763,19 @@
         <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6842,11 +6783,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6862,22 +6803,22 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6926,7 +6867,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6935,37 +6876,37 @@
         <v>56</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6981,22 +6922,22 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>330</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -7021,13 +6962,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -7045,7 +6986,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7054,25 +6995,25 @@
         <v>56</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -7080,11 +7021,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7100,21 +7041,21 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -7138,13 +7079,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7162,7 +7103,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7180,24 +7121,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7208,7 +7149,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -7217,20 +7158,20 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7279,13 +7220,13 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -7294,19 +7235,19 @@
         <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7314,7 +7255,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7334,23 +7275,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>142</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7374,13 +7313,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7398,7 +7337,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7407,33 +7346,33 @@
         <v>56</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7456,20 +7395,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7493,13 +7428,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7517,7 +7452,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>123</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7526,22 +7461,22 @@
         <v>56</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>376</v>
+        <v>124</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7552,18 +7487,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>378</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7575,18 +7510,18 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7610,37 +7545,37 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>130</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
@@ -7652,24 +7587,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>124</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7680,7 +7615,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7689,20 +7624,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>391</v>
+        <v>234</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7739,25 +7676,23 @@
         <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -7766,16 +7701,16 @@
         <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>394</v>
+        <v>238</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7786,9 +7721,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7806,21 +7743,23 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>232</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7844,7 +7783,7 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>399</v>
@@ -7868,13 +7807,13 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>236</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
@@ -7886,24 +7825,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>403</v>
+        <v>238</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8018,11 +7957,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8044,14 +7983,12 @@
         <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8124,7 +8061,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8135,9 +8072,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8155,23 +8094,19 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -8207,17 +8142,19 @@
         <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8238,10 +8175,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8252,17 +8189,15 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>56</v>
@@ -8277,26 +8212,26 @@
         <v>57</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>45</v>
@@ -8314,13 +8249,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8338,13 +8273,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -8359,10 +8294,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8373,7 +8308,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8384,7 +8319,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8393,18 +8328,20 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8453,7 +8390,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8474,10 +8411,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8488,7 +8425,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8496,10 +8433,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8508,19 +8445,21 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8556,25 +8495,25 @@
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
@@ -8589,10 +8528,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8603,20 +8542,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8625,19 +8562,21 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8685,13 +8624,13 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
@@ -8706,10 +8645,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8720,7 +8659,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8740,19 +8679,23 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8800,7 +8743,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8821,10 +8764,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8835,18 +8778,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8855,21 +8798,23 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8905,25 +8850,25 @@
         <v>45</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8938,10 +8883,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8952,7 +8897,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8960,7 +8905,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>56</v>
@@ -8975,18 +8920,20 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>251</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -9010,13 +8957,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -9034,10 +8981,10 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>254</v>
+        <v>409</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>56</v>
@@ -9055,10 +9002,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -9069,7 +9016,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9092,13 +9039,13 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9149,7 +9096,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9173,7 +9120,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9184,18 +9131,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -9204,29 +9151,27 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>45</v>
@@ -9256,25 +9201,25 @@
         <v>45</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
@@ -9289,10 +9234,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9303,7 +9248,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9314,7 +9259,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
@@ -9326,18 +9271,20 @@
         <v>57</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9373,25 +9320,23 @@
         <v>45</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -9406,10 +9351,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9420,15 +9365,17 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>56</v>
@@ -9443,17 +9390,19 @@
         <v>57</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9478,13 +9427,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9502,13 +9451,13 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>45</v>
@@ -9523,10 +9472,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9537,7 +9486,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9545,7 +9494,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>56</v>
@@ -9557,21 +9506,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>284</v>
+        <v>121</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>286</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9619,7 +9566,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9640,10 +9587,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9654,7 +9601,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9665,7 +9612,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9674,23 +9621,19 @@
         <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9726,25 +9669,25 @@
         <v>45</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
@@ -9759,10 +9702,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9773,9 +9716,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9784,7 +9729,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9793,23 +9738,19 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9857,13 +9798,13 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
@@ -9878,10 +9819,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9892,7 +9833,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9900,7 +9841,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>56</v>
@@ -9912,29 +9853,29 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>424</v>
+        <v>251</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>425</v>
+        <v>252</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>426</v>
+        <v>253</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>427</v>
+        <v>254</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>45</v>
@@ -9952,13 +9893,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9976,7 +9917,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>423</v>
+        <v>256</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9997,10 +9938,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>430</v>
+        <v>257</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>431</v>
+        <v>258</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10011,7 +9952,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10022,7 +9963,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -10031,18 +9972,20 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10091,7 +10034,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10112,10 +10055,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10126,18 +10069,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -10146,21 +10089,21 @@
         <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10196,25 +10139,25 @@
         <v>45</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -10229,10 +10172,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10243,7 +10186,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10251,10 +10194,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -10266,19 +10209,17 @@
         <v>57</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10315,23 +10256,25 @@
         <v>45</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AB71" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10346,10 +10289,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10360,11 +10303,9 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10385,19 +10326,19 @@
         <v>57</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10422,13 +10363,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10446,13 +10387,13 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
@@ -10467,10 +10408,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10481,7 +10422,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10501,19 +10442,23 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10561,7 +10506,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10582,10 +10527,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10596,7 +10541,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10607,7 +10552,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10619,15 +10564,17 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>102</v>
+        <v>432</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>244</v>
+        <v>433</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10664,25 +10611,25 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>130</v>
+        <v>431</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
@@ -10694,28 +10641,26 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>45</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10724,7 +10669,7 @@
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10736,15 +10681,17 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>247</v>
+        <v>441</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>244</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10793,13 +10740,13 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
@@ -10811,24 +10758,24 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>45</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10839,7 +10786,7 @@
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -10851,16 +10798,20 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>121</v>
+        <v>451</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10908,19 +10859,19 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>123</v>
+        <v>449</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>45</v>
@@ -10929,10 +10880,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>124</v>
+        <v>457</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10943,18 +10894,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
@@ -10966,17 +10917,15 @@
         <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -11013,25 +10962,25 @@
         <v>45</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -11060,18 +11009,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>45</v>
@@ -11083,16 +11032,16 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11142,13 +11091,13 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
@@ -11166,7 +11115,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11177,38 +11126,40 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>257</v>
+        <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11257,13 +11208,13 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>259</v>
+        <v>463</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
@@ -11292,7 +11243,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11300,7 +11251,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>56</v>
@@ -11312,29 +11263,25 @@
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>69</v>
+        <v>465</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>261</v>
+        <v>466</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>45</v>
@@ -11376,7 +11323,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>266</v>
+        <v>464</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11385,7 +11332,7 @@
         <v>56</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>45</v>
@@ -11397,10 +11344,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>267</v>
+        <v>469</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11411,7 +11358,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11422,7 +11369,7 @@
         <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
@@ -11431,20 +11378,18 @@
         <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>120</v>
+        <v>465</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>270</v>
+        <v>472</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11493,7 +11438,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>273</v>
+        <v>471</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11502,7 +11447,7 @@
         <v>56</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>45</v>
@@ -11514,10 +11459,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>274</v>
+        <v>469</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>275</v>
+        <v>474</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11528,7 +11473,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11536,7 +11481,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>56</v>
@@ -11548,20 +11493,22 @@
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>279</v>
+        <v>479</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11586,13 +11533,13 @@
         <v>45</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11610,7 +11557,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11628,13 +11575,13 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>45</v>
+        <v>482</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>281</v>
+        <v>483</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11645,7 +11592,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11653,10 +11600,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>45</v>
@@ -11665,20 +11612,22 @@
         <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>284</v>
+        <v>485</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="N83" t="s" s="2">
-        <v>286</v>
+        <v>488</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11703,13 +11652,13 @@
         <v>45</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>45</v>
+        <v>490</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -11727,13 +11676,13 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>287</v>
+        <v>484</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>45</v>
@@ -11745,13 +11694,13 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>45</v>
+        <v>482</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11762,7 +11711,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11782,22 +11731,20 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>291</v>
+        <v>492</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>292</v>
+        <v>493</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>295</v>
+        <v>495</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11846,7 +11793,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>296</v>
+        <v>491</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11867,10 +11814,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>298</v>
+        <v>496</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11881,7 +11828,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11901,23 +11848,19 @@
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>45</v>
       </c>
@@ -11965,7 +11908,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>304</v>
+        <v>497</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11986,10 +11929,10 @@
         <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>305</v>
+        <v>469</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>306</v>
+        <v>500</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -12000,7 +11943,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12011,7 +11954,7 @@
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>45</v>
@@ -12020,21 +11963,23 @@
         <v>45</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>450</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12082,42 +12027,42 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>45</v>
+        <v>506</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>457</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12140,17 +12085,15 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>459</v>
+        <v>120</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>460</v>
+        <v>121</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12199,7 +12142,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>458</v>
+        <v>123</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12217,28 +12160,28 @@
         <v>45</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>465</v>
+        <v>124</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>466</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12257,20 +12200,18 @@
         <v>45</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>468</v>
+        <v>102</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>469</v>
+        <v>103</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>470</v>
+        <v>126</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
@@ -12318,7 +12259,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>467</v>
+        <v>130</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12330,7 +12271,7 @@
         <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>473</v>
+        <v>45</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>45</v>
@@ -12339,10 +12280,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>474</v>
+        <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>475</v>
+        <v>124</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12353,38 +12294,40 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>45</v>
@@ -12433,13 +12376,13 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>123</v>
+        <v>463</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
@@ -12457,7 +12400,7 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -12468,18 +12411,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
@@ -12491,18 +12434,20 @@
         <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>103</v>
+        <v>513</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>126</v>
+        <v>514</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
       </c>
@@ -12526,13 +12471,13 @@
         <v>45</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>45</v>
+        <v>517</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>45</v>
+        <v>518</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>45</v>
@@ -12550,13 +12495,13 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>130</v>
+        <v>512</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>45</v>
@@ -12571,10 +12516,10 @@
         <v>45</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>124</v>
+        <v>519</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12585,40 +12530,38 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>479</v>
+        <v>45</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>102</v>
+        <v>521</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>108</v>
+        <v>522</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -12667,13 +12610,13 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>45</v>
@@ -12691,7 +12634,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>99</v>
+        <v>524</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12702,7 +12645,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12713,7 +12656,7 @@
         <v>43</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>45</v>
@@ -12722,19 +12665,23 @@
         <v>45</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
@@ -12782,19 +12729,19 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>45</v>
+        <v>506</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>45</v>
@@ -12803,10 +12750,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -12817,7 +12764,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12840,13 +12787,13 @@
         <v>45</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>483</v>
+        <v>120</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>490</v>
+        <v>121</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>491</v>
+        <v>122</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12897,7 +12844,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>489</v>
+        <v>123</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -12906,7 +12853,7 @@
         <v>56</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>45</v>
@@ -12918,10 +12865,10 @@
         <v>45</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>487</v>
+        <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>492</v>
+        <v>124</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -12932,18 +12879,18 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>45</v>
@@ -12955,20 +12902,18 @@
         <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>494</v>
+        <v>103</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>495</v>
+        <v>126</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
@@ -12992,13 +12937,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>498</v>
+        <v>45</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>499</v>
+        <v>45</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13016,13 +12961,13 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>493</v>
+        <v>130</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>45</v>
@@ -13034,13 +12979,13 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>501</v>
+        <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>386</v>
+        <v>124</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13051,11 +12996,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13068,26 +13013,24 @@
         <v>45</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>503</v>
+        <v>108</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>45</v>
       </c>
@@ -13111,13 +13054,13 @@
         <v>45</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>507</v>
+        <v>45</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>508</v>
+        <v>45</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>45</v>
@@ -13135,7 +13078,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13153,13 +13096,13 @@
         <v>45</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>501</v>
+        <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>386</v>
+        <v>99</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13170,7 +13113,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13178,7 +13121,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>56</v>
@@ -13190,20 +13133,20 @@
         <v>45</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>510</v>
+        <v>142</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>513</v>
+        <v>217</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -13228,13 +13171,13 @@
         <v>45</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>45</v>
@@ -13252,10 +13195,10 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>56</v>
@@ -13270,16 +13213,16 @@
         <v>45</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>45</v>
+        <v>538</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>514</v>
+        <v>224</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>45</v>
@@ -13287,7 +13230,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13313,10 +13256,10 @@
         <v>120</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>516</v>
+        <v>121</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>517</v>
+        <v>122</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13367,7 +13310,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>515</v>
+        <v>123</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13388,10 +13331,10 @@
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>487</v>
+        <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>518</v>
+        <v>124</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -13402,11 +13345,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13422,23 +13365,21 @@
         <v>45</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>468</v>
+        <v>102</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>520</v>
+        <v>103</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>521</v>
+        <v>126</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>45</v>
       </c>
@@ -13474,19 +13415,19 @@
         <v>45</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>519</v>
+        <v>130</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13498,7 +13439,7 @@
         <v>45</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>524</v>
+        <v>45</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>45</v>
@@ -13507,10 +13448,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>526</v>
+        <v>124</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -13521,7 +13462,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13532,7 +13473,7 @@
         <v>43</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>45</v>
@@ -13541,19 +13482,23 @@
         <v>45</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>45</v>
       </c>
@@ -13589,25 +13534,23 @@
         <v>45</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AB99" s="2"/>
       <c r="AC99" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>45</v>
@@ -13622,10 +13565,10 @@
         <v>45</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -13636,18 +13579,20 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B100" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C100" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
@@ -13656,21 +13601,23 @@
         <v>45</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>45</v>
       </c>
@@ -13694,13 +13641,13 @@
         <v>45</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>45</v>
@@ -13718,7 +13665,7 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
@@ -13739,10 +13686,10 @@
         <v>45</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -13753,40 +13700,38 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>479</v>
+        <v>45</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -13835,13 +13780,13 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>481</v>
+        <v>123</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>45</v>
@@ -13859,7 +13804,7 @@
         <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -13870,7 +13815,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13881,7 +13826,7 @@
         <v>43</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>45</v>
@@ -13893,20 +13838,16 @@
         <v>45</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>531</v>
+        <v>244</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
@@ -13930,37 +13871,37 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>536</v>
+        <v>45</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>530</v>
+        <v>130</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>45</v>
@@ -13975,10 +13916,10 @@
         <v>45</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>537</v>
+        <v>45</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -13989,18 +13930,20 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B103" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>45</v>
@@ -14012,13 +13955,13 @@
         <v>45</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>539</v>
+        <v>247</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>540</v>
+        <v>248</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>541</v>
+        <v>249</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14069,13 +14012,13 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>538</v>
+        <v>130</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>45</v>
@@ -14093,7 +14036,7 @@
         <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>542</v>
+        <v>45</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -14104,7 +14047,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14112,10 +14055,10 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>45</v>
@@ -14127,26 +14070,26 @@
         <v>57</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>468</v>
+        <v>69</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>544</v>
+        <v>251</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>545</v>
+        <v>252</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>546</v>
+        <v>253</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>547</v>
+        <v>254</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>45</v>
@@ -14188,19 +14131,19 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>543</v>
+        <v>256</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>524</v>
+        <v>45</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>45</v>
@@ -14209,10 +14152,10 @@
         <v>45</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>548</v>
+        <v>257</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>549</v>
+        <v>258</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
@@ -14223,7 +14166,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14234,7 +14177,7 @@
         <v>43</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>45</v>
@@ -14243,18 +14186,20 @@
         <v>45</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M105" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>45</v>
@@ -14303,7 +14248,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14324,10 +14269,10 @@
         <v>45</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14338,18 +14283,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -14358,21 +14303,21 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
@@ -14420,13 +14365,13 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -14441,10 +14386,10 @@
         <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14455,41 +14400,41 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>479</v>
+        <v>45</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
@@ -14537,13 +14482,13 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>481</v>
+        <v>277</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
@@ -14558,10 +14503,10 @@
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -14572,7 +14517,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14580,7 +14525,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>56</v>
@@ -14595,17 +14540,19 @@
         <v>57</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>554</v>
+        <v>282</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N108" t="s" s="2">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
@@ -14630,13 +14577,13 @@
         <v>45</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>45</v>
@@ -14654,10 +14601,10 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>553</v>
+        <v>286</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>56</v>
@@ -14672,16 +14619,16 @@
         <v>45</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>556</v>
+        <v>45</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>45</v>
@@ -14689,7 +14636,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14709,19 +14656,23 @@
         <v>45</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
       </c>
@@ -14769,7 +14720,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14790,10 +14741,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -14804,18 +14755,18 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>45</v>
@@ -14824,21 +14775,23 @@
         <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>102</v>
+        <v>551</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>103</v>
+        <v>552</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>126</v>
+        <v>349</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
       </c>
@@ -14874,25 +14827,25 @@
         <v>45</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>130</v>
+        <v>550</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>45</v>
@@ -14904,24 +14857,24 @@
         <v>45</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>45</v>
+        <v>554</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>124</v>
+        <v>356</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14932,7 +14885,7 @@
         <v>43</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>45</v>
@@ -14941,22 +14894,22 @@
         <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>231</v>
+        <v>556</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>233</v>
+        <v>557</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>234</v>
+        <v>362</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -14981,38 +14934,40 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AB111" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>236</v>
+        <v>555</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>45</v>
@@ -15024,10 +14979,10 @@
         <v>45</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>238</v>
+        <v>366</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -15038,13 +14993,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15060,22 +15013,22 @@
         <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>231</v>
+        <v>369</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>232</v>
+        <v>370</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>233</v>
+        <v>559</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
@@ -15103,10 +15056,10 @@
         <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>240</v>
+        <v>372</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
@@ -15124,13 +15077,13 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>236</v>
+        <v>558</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>45</v>
@@ -15142,19 +15095,19 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" hidden="true">
@@ -15170,7 +15123,7 @@
         <v>43</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>45</v>
@@ -15182,16 +15135,20 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>121</v>
+        <v>561</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
       </c>
@@ -15239,13 +15196,13 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>123</v>
+        <v>560</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>45</v>
@@ -15260,1900 +15217,20 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>124</v>
+        <v>457</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO129" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO129">
+  <autoFilter ref="A1:AO113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17163,7 +15240,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI128">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
